--- a/Stimuli/Int_sheet.xlsx
+++ b/Stimuli/Int_sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewdougherty/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewdougherty/Desktop/Projects/RetGoals_Git/Stimuli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C06913A9-FFCE-7D4D-AECC-D18AA7351E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BD1AD5-73AE-DE40-908F-12DA05DC69B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16740" xr2:uid="{B8F4A9D8-B7F6-1343-8547-E546F54B9753}"/>
+    <workbookView xWindow="5560" yWindow="1320" windowWidth="27640" windowHeight="16740" xr2:uid="{B8F4A9D8-B7F6-1343-8547-E546F54B9753}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="318">
   <si>
     <t>stim_name</t>
   </si>
@@ -975,6 +975,21 @@
   </si>
   <si>
     <t>InternTask.300.jpeg</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1359,15 +1374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48F3D23-6C59-B544-B0DD-7559A72540D6}">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F301"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="D304" sqref="D304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,8 +1401,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1397,8 +1415,8 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
+      <c r="D2" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1406,8 +1424,11 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1417,8 +1438,8 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
+      <c r="D3" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E3" s="1">
         <v>9</v>
@@ -1426,8 +1447,11 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1437,8 +1461,8 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
+      <c r="D4" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -1446,8 +1470,11 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1457,8 +1484,8 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
+      <c r="D5" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E5" s="1">
         <v>6</v>
@@ -1466,8 +1493,11 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1477,8 +1507,8 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
+      <c r="D6" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -1486,8 +1516,11 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1497,8 +1530,8 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
+      <c r="D7" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1506,8 +1539,11 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,8 +1553,8 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
-        <v>2</v>
+      <c r="D8" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -1526,8 +1562,11 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1537,8 +1576,8 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
+      <c r="D9" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -1546,8 +1585,11 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1557,8 +1599,8 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
-        <v>2</v>
+      <c r="D10" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -1566,8 +1608,11 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1577,8 +1622,8 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1">
-        <v>2</v>
+      <c r="D11" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -1586,8 +1631,11 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1597,8 +1645,8 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
+      <c r="D12" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -1606,8 +1654,11 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1617,8 +1668,8 @@
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1">
-        <v>2</v>
+      <c r="D13" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
@@ -1626,8 +1677,11 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,8 +1691,8 @@
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
+      <c r="D14" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E14" s="1">
         <v>7</v>
@@ -1646,8 +1700,11 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1657,8 +1714,8 @@
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1">
-        <v>2</v>
+      <c r="D15" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -1666,8 +1723,11 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1677,8 +1737,8 @@
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
+      <c r="D16" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -1686,8 +1746,11 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1760,8 @@
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1">
-        <v>2</v>
+      <c r="D17" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -1706,8 +1769,11 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1717,8 +1783,8 @@
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="1">
-        <v>2</v>
+      <c r="D18" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1726,8 +1792,11 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1737,8 +1806,8 @@
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1">
-        <v>2</v>
+      <c r="D19" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
@@ -1746,8 +1815,11 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1757,8 +1829,8 @@
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1">
-        <v>2</v>
+      <c r="D20" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E20" s="1">
         <v>4</v>
@@ -1766,8 +1838,11 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1777,8 +1852,8 @@
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="1">
-        <v>2</v>
+      <c r="D21" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E21" s="1">
         <v>9</v>
@@ -1786,8 +1861,11 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1797,8 +1875,8 @@
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1">
-        <v>2</v>
+      <c r="D22" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -1806,8 +1884,11 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1817,8 +1898,8 @@
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="1">
-        <v>2</v>
+      <c r="D23" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1826,8 +1907,11 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1837,8 +1921,8 @@
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="1">
-        <v>2</v>
+      <c r="D24" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
@@ -1846,8 +1930,11 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1857,8 +1944,8 @@
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="1">
-        <v>2</v>
+      <c r="D25" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E25" s="1">
         <v>6</v>
@@ -1866,8 +1953,11 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1877,8 +1967,8 @@
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1">
-        <v>2</v>
+      <c r="D26" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E26" s="1">
         <v>6</v>
@@ -1886,8 +1976,11 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1897,8 +1990,8 @@
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="1">
-        <v>4</v>
+      <c r="D27" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
@@ -1906,8 +1999,11 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -1917,8 +2013,8 @@
       <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="1">
-        <v>4</v>
+      <c r="D28" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1926,8 +2022,11 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -1937,8 +2036,8 @@
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="1">
-        <v>4</v>
+      <c r="D29" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E29" s="1">
         <v>6</v>
@@ -1946,8 +2045,11 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -1957,8 +2059,8 @@
       <c r="C30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="1">
-        <v>4</v>
+      <c r="D30" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -1966,8 +2068,11 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -1977,8 +2082,8 @@
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="1">
-        <v>4</v>
+      <c r="D31" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1986,8 +2091,11 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -1997,8 +2105,8 @@
       <c r="C32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="1">
-        <v>4</v>
+      <c r="D32" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E32" s="1">
         <v>8</v>
@@ -2006,8 +2114,11 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -2017,8 +2128,8 @@
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="1">
-        <v>4</v>
+      <c r="D33" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -2026,8 +2137,11 @@
       <c r="F33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -2037,8 +2151,8 @@
       <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="1">
-        <v>4</v>
+      <c r="D34" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -2046,8 +2160,11 @@
       <c r="F34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -2057,8 +2174,8 @@
       <c r="C35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="1">
-        <v>4</v>
+      <c r="D35" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E35" s="1">
         <v>10</v>
@@ -2066,8 +2183,11 @@
       <c r="F35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -2077,8 +2197,8 @@
       <c r="C36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="1">
-        <v>4</v>
+      <c r="D36" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2086,8 +2206,11 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -2097,8 +2220,8 @@
       <c r="C37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="1">
-        <v>4</v>
+      <c r="D37" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E37" s="1">
         <v>4</v>
@@ -2106,8 +2229,11 @@
       <c r="F37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -2117,8 +2243,8 @@
       <c r="C38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="1">
-        <v>4</v>
+      <c r="D38" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2126,8 +2252,11 @@
       <c r="F38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -2137,8 +2266,8 @@
       <c r="C39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="1">
-        <v>4</v>
+      <c r="D39" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E39" s="1">
         <v>6</v>
@@ -2146,8 +2275,11 @@
       <c r="F39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
@@ -2157,8 +2289,8 @@
       <c r="C40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="1">
-        <v>4</v>
+      <c r="D40" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2166,8 +2298,11 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2177,8 +2312,8 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="1">
-        <v>4</v>
+      <c r="D41" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
@@ -2186,8 +2321,11 @@
       <c r="F41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -2197,8 +2335,8 @@
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="1">
-        <v>4</v>
+      <c r="D42" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E42" s="1">
         <v>5</v>
@@ -2206,8 +2344,11 @@
       <c r="F42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
@@ -2217,8 +2358,8 @@
       <c r="C43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="1">
-        <v>4</v>
+      <c r="D43" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E43" s="1">
         <v>4</v>
@@ -2226,8 +2367,11 @@
       <c r="F43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -2237,8 +2381,8 @@
       <c r="C44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="1">
-        <v>4</v>
+      <c r="D44" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
@@ -2246,8 +2390,11 @@
       <c r="F44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -2257,8 +2404,8 @@
       <c r="C45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="1">
-        <v>4</v>
+      <c r="D45" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E45" s="1">
         <v>4</v>
@@ -2266,8 +2413,11 @@
       <c r="F45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -2277,8 +2427,8 @@
       <c r="C46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="1">
-        <v>4</v>
+      <c r="D46" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E46" s="1">
         <v>4</v>
@@ -2286,8 +2436,11 @@
       <c r="F46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -2297,8 +2450,8 @@
       <c r="C47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="1">
-        <v>4</v>
+      <c r="D47" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E47" s="1">
         <v>4</v>
@@ -2306,8 +2459,11 @@
       <c r="F47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -2317,8 +2473,8 @@
       <c r="C48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="1">
-        <v>4</v>
+      <c r="D48" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E48" s="1">
         <v>7</v>
@@ -2326,8 +2482,11 @@
       <c r="F48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -2337,8 +2496,8 @@
       <c r="C49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="1">
-        <v>4</v>
+      <c r="D49" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
@@ -2346,8 +2505,11 @@
       <c r="F49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -2357,8 +2519,8 @@
       <c r="C50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="1">
-        <v>4</v>
+      <c r="D50" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -2366,8 +2528,11 @@
       <c r="F50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -2377,8 +2542,8 @@
       <c r="C51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="1">
-        <v>4</v>
+      <c r="D51" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E51" s="1">
         <v>6</v>
@@ -2386,8 +2551,11 @@
       <c r="F51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
@@ -2397,8 +2565,8 @@
       <c r="C52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="1">
-        <v>3</v>
+      <c r="D52" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -2406,8 +2574,11 @@
       <c r="F52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -2417,8 +2588,8 @@
       <c r="C53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="1">
-        <v>3</v>
+      <c r="D53" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -2426,8 +2597,11 @@
       <c r="F53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -2437,8 +2611,8 @@
       <c r="C54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="1">
-        <v>3</v>
+      <c r="D54" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -2446,8 +2620,11 @@
       <c r="F54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -2457,8 +2634,8 @@
       <c r="C55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="1">
-        <v>3</v>
+      <c r="D55" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -2466,8 +2643,11 @@
       <c r="F55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -2477,8 +2657,8 @@
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="1">
-        <v>3</v>
+      <c r="D56" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -2486,8 +2666,11 @@
       <c r="F56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -2497,8 +2680,8 @@
       <c r="C57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="1">
-        <v>3</v>
+      <c r="D57" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -2506,8 +2689,11 @@
       <c r="F57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -2517,8 +2703,8 @@
       <c r="C58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="1">
-        <v>3</v>
+      <c r="D58" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -2526,8 +2712,11 @@
       <c r="F58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -2537,8 +2726,8 @@
       <c r="C59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="1">
-        <v>3</v>
+      <c r="D59" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -2546,8 +2735,11 @@
       <c r="F59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -2557,8 +2749,8 @@
       <c r="C60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="1">
-        <v>3</v>
+      <c r="D60" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -2566,8 +2758,11 @@
       <c r="F60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -2577,8 +2772,8 @@
       <c r="C61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="1">
-        <v>3</v>
+      <c r="D61" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -2586,8 +2781,11 @@
       <c r="F61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -2597,8 +2795,8 @@
       <c r="C62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="1">
-        <v>3</v>
+      <c r="D62" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -2606,8 +2804,11 @@
       <c r="F62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -2617,8 +2818,8 @@
       <c r="C63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="1">
-        <v>3</v>
+      <c r="D63" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -2626,8 +2827,11 @@
       <c r="F63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -2637,8 +2841,8 @@
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="1">
-        <v>3</v>
+      <c r="D64" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -2646,8 +2850,11 @@
       <c r="F64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -2657,8 +2864,8 @@
       <c r="C65" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="1">
-        <v>3</v>
+      <c r="D65" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -2666,8 +2873,11 @@
       <c r="F65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -2677,8 +2887,8 @@
       <c r="C66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="1">
-        <v>3</v>
+      <c r="D66" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -2686,8 +2896,11 @@
       <c r="F66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -2697,8 +2910,8 @@
       <c r="C67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="1">
-        <v>3</v>
+      <c r="D67" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
@@ -2706,8 +2919,11 @@
       <c r="F67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -2717,8 +2933,8 @@
       <c r="C68" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="1">
-        <v>3</v>
+      <c r="D68" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -2726,8 +2942,11 @@
       <c r="F68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
@@ -2737,8 +2956,8 @@
       <c r="C69" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="1">
-        <v>3</v>
+      <c r="D69" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -2746,8 +2965,11 @@
       <c r="F69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -2757,8 +2979,8 @@
       <c r="C70" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D70" s="1">
-        <v>3</v>
+      <c r="D70" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -2766,8 +2988,11 @@
       <c r="F70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -2777,8 +3002,8 @@
       <c r="C71" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D71" s="1">
-        <v>3</v>
+      <c r="D71" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -2786,8 +3011,11 @@
       <c r="F71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
@@ -2797,8 +3025,8 @@
       <c r="C72" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D72" s="1">
-        <v>3</v>
+      <c r="D72" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -2806,8 +3034,11 @@
       <c r="F72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -2817,8 +3048,8 @@
       <c r="C73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D73" s="1">
-        <v>3</v>
+      <c r="D73" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -2826,8 +3057,11 @@
       <c r="F73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -2837,8 +3071,8 @@
       <c r="C74" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D74" s="1">
-        <v>3</v>
+      <c r="D74" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -2846,8 +3080,11 @@
       <c r="F74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
@@ -2857,8 +3094,8 @@
       <c r="C75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="1">
-        <v>3</v>
+      <c r="D75" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -2866,8 +3103,11 @@
       <c r="F75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -2877,8 +3117,8 @@
       <c r="C76" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D76" s="1">
-        <v>3</v>
+      <c r="D76" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -2886,8 +3126,11 @@
       <c r="F76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>85</v>
       </c>
@@ -2897,8 +3140,8 @@
       <c r="C77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="1">
-        <v>2</v>
+      <c r="D77" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E77" s="1">
         <v>9</v>
@@ -2906,8 +3149,11 @@
       <c r="F77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
@@ -2917,8 +3163,8 @@
       <c r="C78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="1">
-        <v>2</v>
+      <c r="D78" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -2926,8 +3172,11 @@
       <c r="F78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
@@ -2937,8 +3186,8 @@
       <c r="C79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="1">
-        <v>2</v>
+      <c r="D79" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
@@ -2946,8 +3195,11 @@
       <c r="F79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
@@ -2957,8 +3209,8 @@
       <c r="C80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="1">
-        <v>2</v>
+      <c r="D80" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E80" s="1">
         <v>3</v>
@@ -2966,8 +3218,11 @@
       <c r="F80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>90</v>
       </c>
@@ -2977,8 +3232,8 @@
       <c r="C81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="1">
-        <v>2</v>
+      <c r="D81" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E81" s="1">
         <v>4</v>
@@ -2986,8 +3241,11 @@
       <c r="F81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
@@ -2997,8 +3255,8 @@
       <c r="C82" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="1">
-        <v>2</v>
+      <c r="D82" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E82" s="1">
         <v>12</v>
@@ -3006,8 +3264,11 @@
       <c r="F82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>92</v>
       </c>
@@ -3017,8 +3278,8 @@
       <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="1">
-        <v>2</v>
+      <c r="D83" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E83" s="1">
         <v>12</v>
@@ -3026,8 +3287,11 @@
       <c r="F83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
@@ -3037,8 +3301,8 @@
       <c r="C84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="1">
-        <v>2</v>
+      <c r="D84" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E84" s="1">
         <v>9</v>
@@ -3046,8 +3310,11 @@
       <c r="F84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
@@ -3057,8 +3324,8 @@
       <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="1">
-        <v>2</v>
+      <c r="D85" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E85" s="1">
         <v>9</v>
@@ -3066,8 +3333,11 @@
       <c r="F85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
@@ -3077,8 +3347,8 @@
       <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="1">
-        <v>2</v>
+      <c r="D86" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E86" s="1">
         <v>9</v>
@@ -3086,8 +3356,11 @@
       <c r="F86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
@@ -3097,8 +3370,8 @@
       <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="1">
-        <v>2</v>
+      <c r="D87" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E87" s="1">
         <v>15</v>
@@ -3106,8 +3379,11 @@
       <c r="F87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>97</v>
       </c>
@@ -3117,8 +3393,8 @@
       <c r="C88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="1">
-        <v>2</v>
+      <c r="D88" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E88" s="1">
         <v>5</v>
@@ -3126,8 +3402,11 @@
       <c r="F88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
@@ -3137,8 +3416,8 @@
       <c r="C89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="1">
-        <v>2</v>
+      <c r="D89" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E89" s="1">
         <v>12</v>
@@ -3146,8 +3425,11 @@
       <c r="F89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>99</v>
       </c>
@@ -3157,8 +3439,8 @@
       <c r="C90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="1">
-        <v>2</v>
+      <c r="D90" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E90" s="1">
         <v>11</v>
@@ -3166,8 +3448,11 @@
       <c r="F90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>100</v>
       </c>
@@ -3177,8 +3462,8 @@
       <c r="C91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="1">
-        <v>2</v>
+      <c r="D91" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E91" s="1">
         <v>14</v>
@@ -3186,8 +3471,11 @@
       <c r="F91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
@@ -3197,8 +3485,8 @@
       <c r="C92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="1">
-        <v>2</v>
+      <c r="D92" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -3206,8 +3494,11 @@
       <c r="F92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>102</v>
       </c>
@@ -3217,8 +3508,8 @@
       <c r="C93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="1">
-        <v>2</v>
+      <c r="D93" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E93" s="1">
         <v>7</v>
@@ -3226,8 +3517,11 @@
       <c r="F93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>103</v>
       </c>
@@ -3237,8 +3531,8 @@
       <c r="C94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="1">
-        <v>2</v>
+      <c r="D94" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E94" s="1">
         <v>8</v>
@@ -3246,8 +3540,11 @@
       <c r="F94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>104</v>
       </c>
@@ -3257,8 +3554,8 @@
       <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="1">
-        <v>2</v>
+      <c r="D95" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E95" s="1">
         <v>7</v>
@@ -3266,8 +3563,11 @@
       <c r="F95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>105</v>
       </c>
@@ -3277,8 +3577,8 @@
       <c r="C96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="1">
-        <v>2</v>
+      <c r="D96" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E96" s="1">
         <v>13</v>
@@ -3286,8 +3586,11 @@
       <c r="F96" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>106</v>
       </c>
@@ -3297,8 +3600,8 @@
       <c r="C97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="1">
-        <v>2</v>
+      <c r="D97" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E97" s="1">
         <v>20</v>
@@ -3306,8 +3609,11 @@
       <c r="F97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>107</v>
       </c>
@@ -3317,8 +3623,8 @@
       <c r="C98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="1">
-        <v>2</v>
+      <c r="D98" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E98" s="1">
         <v>12</v>
@@ -3326,8 +3632,11 @@
       <c r="F98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>108</v>
       </c>
@@ -3337,8 +3646,8 @@
       <c r="C99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="1">
-        <v>2</v>
+      <c r="D99" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E99" s="1">
         <v>4</v>
@@ -3346,8 +3655,11 @@
       <c r="F99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>109</v>
       </c>
@@ -3357,8 +3669,8 @@
       <c r="C100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="1">
-        <v>2</v>
+      <c r="D100" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E100" s="1">
         <v>17</v>
@@ -3366,8 +3678,11 @@
       <c r="F100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>110</v>
       </c>
@@ -3377,8 +3692,8 @@
       <c r="C101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="1">
-        <v>2</v>
+      <c r="D101" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E101" s="1">
         <v>10</v>
@@ -3386,8 +3701,11 @@
       <c r="F101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>111</v>
       </c>
@@ -3397,8 +3715,8 @@
       <c r="C102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D102" s="1">
-        <v>4</v>
+      <c r="D102" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E102" s="1">
         <v>2</v>
@@ -3406,8 +3724,11 @@
       <c r="F102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>112</v>
       </c>
@@ -3417,8 +3738,8 @@
       <c r="C103" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D103" s="1">
-        <v>4</v>
+      <c r="D103" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E103" s="1">
         <v>2</v>
@@ -3426,8 +3747,11 @@
       <c r="F103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>113</v>
       </c>
@@ -3437,8 +3761,8 @@
       <c r="C104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D104" s="1">
-        <v>4</v>
+      <c r="D104" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -3446,8 +3770,11 @@
       <c r="F104" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>114</v>
       </c>
@@ -3457,8 +3784,8 @@
       <c r="C105" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D105" s="1">
-        <v>4</v>
+      <c r="D105" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -3466,8 +3793,11 @@
       <c r="F105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>115</v>
       </c>
@@ -3477,8 +3807,8 @@
       <c r="C106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D106" s="1">
-        <v>4</v>
+      <c r="D106" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -3486,8 +3816,11 @@
       <c r="F106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G106" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>116</v>
       </c>
@@ -3497,8 +3830,8 @@
       <c r="C107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="1">
-        <v>4</v>
+      <c r="D107" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
@@ -3506,8 +3839,11 @@
       <c r="F107" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>117</v>
       </c>
@@ -3517,8 +3853,8 @@
       <c r="C108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D108" s="1">
-        <v>4</v>
+      <c r="D108" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -3526,8 +3862,11 @@
       <c r="F108" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G108" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>118</v>
       </c>
@@ -3537,8 +3876,8 @@
       <c r="C109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D109" s="1">
-        <v>4</v>
+      <c r="D109" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
@@ -3546,8 +3885,11 @@
       <c r="F109" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>119</v>
       </c>
@@ -3557,8 +3899,8 @@
       <c r="C110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D110" s="1">
-        <v>4</v>
+      <c r="D110" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -3566,8 +3908,11 @@
       <c r="F110" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>120</v>
       </c>
@@ -3577,8 +3922,8 @@
       <c r="C111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="1">
-        <v>4</v>
+      <c r="D111" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E111" s="1">
         <v>2</v>
@@ -3586,8 +3931,11 @@
       <c r="F111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G111" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>121</v>
       </c>
@@ -3597,8 +3945,8 @@
       <c r="C112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D112" s="1">
-        <v>4</v>
+      <c r="D112" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -3606,8 +3954,11 @@
       <c r="F112" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G112" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>122</v>
       </c>
@@ -3617,8 +3968,8 @@
       <c r="C113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D113" s="1">
-        <v>4</v>
+      <c r="D113" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -3626,8 +3977,11 @@
       <c r="F113" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>123</v>
       </c>
@@ -3637,8 +3991,8 @@
       <c r="C114" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D114" s="1">
-        <v>4</v>
+      <c r="D114" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
@@ -3646,8 +4000,11 @@
       <c r="F114" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>124</v>
       </c>
@@ -3657,8 +4014,8 @@
       <c r="C115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D115" s="1">
-        <v>4</v>
+      <c r="D115" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
@@ -3666,8 +4023,11 @@
       <c r="F115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>125</v>
       </c>
@@ -3677,8 +4037,8 @@
       <c r="C116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D116" s="1">
-        <v>4</v>
+      <c r="D116" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -3686,8 +4046,11 @@
       <c r="F116" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>126</v>
       </c>
@@ -3697,8 +4060,8 @@
       <c r="C117" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="1">
-        <v>4</v>
+      <c r="D117" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -3706,8 +4069,11 @@
       <c r="F117" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G117" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>127</v>
       </c>
@@ -3717,8 +4083,8 @@
       <c r="C118" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D118" s="1">
-        <v>4</v>
+      <c r="D118" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -3726,8 +4092,11 @@
       <c r="F118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G118" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>128</v>
       </c>
@@ -3737,8 +4106,8 @@
       <c r="C119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D119" s="1">
-        <v>4</v>
+      <c r="D119" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E119" s="1">
         <v>3</v>
@@ -3746,8 +4115,11 @@
       <c r="F119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G119" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>129</v>
       </c>
@@ -3757,8 +4129,8 @@
       <c r="C120" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D120" s="1">
-        <v>4</v>
+      <c r="D120" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
@@ -3766,8 +4138,11 @@
       <c r="F120" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>130</v>
       </c>
@@ -3777,8 +4152,8 @@
       <c r="C121" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D121" s="1">
-        <v>4</v>
+      <c r="D121" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E121" s="1">
         <v>2</v>
@@ -3786,8 +4161,11 @@
       <c r="F121" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G121" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>131</v>
       </c>
@@ -3797,8 +4175,8 @@
       <c r="C122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D122" s="1">
-        <v>4</v>
+      <c r="D122" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
@@ -3806,8 +4184,11 @@
       <c r="F122" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G122" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>132</v>
       </c>
@@ -3817,8 +4198,8 @@
       <c r="C123" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D123" s="1">
-        <v>4</v>
+      <c r="D123" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
@@ -3826,8 +4207,11 @@
       <c r="F123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G123" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>133</v>
       </c>
@@ -3837,8 +4221,8 @@
       <c r="C124" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D124" s="1">
-        <v>4</v>
+      <c r="D124" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -3846,8 +4230,11 @@
       <c r="F124" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G124" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>134</v>
       </c>
@@ -3857,8 +4244,8 @@
       <c r="C125" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D125" s="1">
-        <v>4</v>
+      <c r="D125" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E125" s="1">
         <v>2</v>
@@ -3866,8 +4253,11 @@
       <c r="F125" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>135</v>
       </c>
@@ -3877,8 +4267,8 @@
       <c r="C126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="1">
-        <v>4</v>
+      <c r="D126" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
@@ -3886,8 +4276,11 @@
       <c r="F126" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G126" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>136</v>
       </c>
@@ -3897,8 +4290,8 @@
       <c r="C127" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D127" s="1">
-        <v>3</v>
+      <c r="D127" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -3906,8 +4299,11 @@
       <c r="F127" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G127" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>137</v>
       </c>
@@ -3917,8 +4313,8 @@
       <c r="C128" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D128" s="1">
-        <v>3</v>
+      <c r="D128" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -3926,8 +4322,11 @@
       <c r="F128" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G128" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>138</v>
       </c>
@@ -3937,8 +4336,8 @@
       <c r="C129" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D129" s="1">
-        <v>3</v>
+      <c r="D129" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -3946,8 +4345,11 @@
       <c r="F129" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G129" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>139</v>
       </c>
@@ -3957,8 +4359,8 @@
       <c r="C130" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D130" s="1">
-        <v>3</v>
+      <c r="D130" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E130" s="1">
         <v>0</v>
@@ -3966,8 +4368,11 @@
       <c r="F130" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G130" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>140</v>
       </c>
@@ -3977,8 +4382,8 @@
       <c r="C131" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D131" s="1">
-        <v>3</v>
+      <c r="D131" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E131" s="1">
         <v>0</v>
@@ -3986,8 +4391,11 @@
       <c r="F131" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G131" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>141</v>
       </c>
@@ -3997,8 +4405,8 @@
       <c r="C132" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D132" s="1">
-        <v>3</v>
+      <c r="D132" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E132" s="1">
         <v>0</v>
@@ -4006,8 +4414,11 @@
       <c r="F132" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G132" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>142</v>
       </c>
@@ -4017,8 +4428,8 @@
       <c r="C133" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D133" s="1">
-        <v>3</v>
+      <c r="D133" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E133" s="1">
         <v>0</v>
@@ -4026,8 +4437,11 @@
       <c r="F133" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G133" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>143</v>
       </c>
@@ -4037,8 +4451,8 @@
       <c r="C134" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D134" s="1">
-        <v>3</v>
+      <c r="D134" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E134" s="1">
         <v>0</v>
@@ -4046,8 +4460,11 @@
       <c r="F134" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G134" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>144</v>
       </c>
@@ -4057,8 +4474,8 @@
       <c r="C135" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D135" s="1">
-        <v>3</v>
+      <c r="D135" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
@@ -4066,8 +4483,11 @@
       <c r="F135" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G135" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>145</v>
       </c>
@@ -4077,8 +4497,8 @@
       <c r="C136" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D136" s="1">
-        <v>3</v>
+      <c r="D136" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E136" s="1">
         <v>0</v>
@@ -4086,8 +4506,11 @@
       <c r="F136" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G136" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>146</v>
       </c>
@@ -4097,8 +4520,8 @@
       <c r="C137" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D137" s="1">
-        <v>3</v>
+      <c r="D137" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E137" s="1">
         <v>0</v>
@@ -4106,8 +4529,11 @@
       <c r="F137" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G137" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>147</v>
       </c>
@@ -4117,8 +4543,8 @@
       <c r="C138" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D138" s="1">
-        <v>3</v>
+      <c r="D138" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E138" s="1">
         <v>0</v>
@@ -4126,8 +4552,11 @@
       <c r="F138" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G138" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>148</v>
       </c>
@@ -4137,8 +4566,8 @@
       <c r="C139" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D139" s="1">
-        <v>3</v>
+      <c r="D139" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E139" s="1">
         <v>0</v>
@@ -4146,8 +4575,11 @@
       <c r="F139" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G139" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>149</v>
       </c>
@@ -4157,8 +4589,8 @@
       <c r="C140" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D140" s="1">
-        <v>3</v>
+      <c r="D140" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E140" s="1">
         <v>0</v>
@@ -4166,8 +4598,11 @@
       <c r="F140" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G140" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>150</v>
       </c>
@@ -4177,8 +4612,8 @@
       <c r="C141" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D141" s="1">
-        <v>3</v>
+      <c r="D141" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E141" s="1">
         <v>0</v>
@@ -4186,8 +4621,11 @@
       <c r="F141" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G141" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>151</v>
       </c>
@@ -4197,8 +4635,8 @@
       <c r="C142" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D142" s="1">
-        <v>3</v>
+      <c r="D142" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E142" s="1">
         <v>0</v>
@@ -4206,8 +4644,11 @@
       <c r="F142" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G142" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>152</v>
       </c>
@@ -4217,8 +4658,8 @@
       <c r="C143" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D143" s="1">
-        <v>3</v>
+      <c r="D143" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E143" s="1">
         <v>0</v>
@@ -4226,8 +4667,11 @@
       <c r="F143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>153</v>
       </c>
@@ -4237,8 +4681,8 @@
       <c r="C144" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D144" s="1">
-        <v>3</v>
+      <c r="D144" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E144" s="1">
         <v>0</v>
@@ -4246,8 +4690,11 @@
       <c r="F144" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G144" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>154</v>
       </c>
@@ -4257,8 +4704,8 @@
       <c r="C145" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D145" s="1">
-        <v>3</v>
+      <c r="D145" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E145" s="1">
         <v>0</v>
@@ -4266,8 +4713,11 @@
       <c r="F145" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G145" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>155</v>
       </c>
@@ -4277,8 +4727,8 @@
       <c r="C146" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D146" s="1">
-        <v>3</v>
+      <c r="D146" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E146" s="1">
         <v>0</v>
@@ -4286,8 +4736,11 @@
       <c r="F146" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G146" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>156</v>
       </c>
@@ -4297,8 +4750,8 @@
       <c r="C147" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D147" s="1">
-        <v>3</v>
+      <c r="D147" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E147" s="1">
         <v>0</v>
@@ -4306,8 +4759,11 @@
       <c r="F147" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G147" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>157</v>
       </c>
@@ -4317,8 +4773,8 @@
       <c r="C148" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D148" s="1">
-        <v>3</v>
+      <c r="D148" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E148" s="1">
         <v>0</v>
@@ -4326,8 +4782,11 @@
       <c r="F148" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G148" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>158</v>
       </c>
@@ -4337,8 +4796,8 @@
       <c r="C149" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D149" s="1">
-        <v>3</v>
+      <c r="D149" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E149" s="1">
         <v>0</v>
@@ -4346,8 +4805,11 @@
       <c r="F149" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G149" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>159</v>
       </c>
@@ -4357,8 +4819,8 @@
       <c r="C150" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D150" s="1">
-        <v>3</v>
+      <c r="D150" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E150" s="1">
         <v>0</v>
@@ -4366,8 +4828,11 @@
       <c r="F150" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G150" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>160</v>
       </c>
@@ -4377,8 +4842,8 @@
       <c r="C151" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D151" s="1">
-        <v>3</v>
+      <c r="D151" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E151" s="1">
         <v>0</v>
@@ -4386,8 +4851,11 @@
       <c r="F151" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G151" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>161</v>
       </c>
@@ -4397,8 +4865,8 @@
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D152" s="1">
-        <v>2</v>
+      <c r="D152" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
@@ -4406,8 +4874,11 @@
       <c r="F152" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G152" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>163</v>
       </c>
@@ -4417,8 +4888,8 @@
       <c r="C153" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="1">
-        <v>2</v>
+      <c r="D153" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E153" s="1">
         <v>4</v>
@@ -4426,8 +4897,11 @@
       <c r="F153" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G153" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>164</v>
       </c>
@@ -4437,8 +4911,8 @@
       <c r="C154" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="1">
-        <v>2</v>
+      <c r="D154" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E154" s="1">
         <v>2</v>
@@ -4446,8 +4920,11 @@
       <c r="F154" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G154" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>165</v>
       </c>
@@ -4457,8 +4934,8 @@
       <c r="C155" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="1">
-        <v>2</v>
+      <c r="D155" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E155" s="1">
         <v>1</v>
@@ -4466,8 +4943,11 @@
       <c r="F155" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G155" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>166</v>
       </c>
@@ -4477,8 +4957,8 @@
       <c r="C156" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D156" s="1">
-        <v>2</v>
+      <c r="D156" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
@@ -4486,8 +4966,11 @@
       <c r="F156" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G156" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>167</v>
       </c>
@@ -4497,8 +4980,8 @@
       <c r="C157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="1">
-        <v>2</v>
+      <c r="D157" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E157" s="1">
         <v>3</v>
@@ -4506,8 +4989,11 @@
       <c r="F157" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G157" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>168</v>
       </c>
@@ -4517,8 +5003,8 @@
       <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="1">
-        <v>2</v>
+      <c r="D158" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E158" s="1">
         <v>2</v>
@@ -4526,8 +5012,11 @@
       <c r="F158" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G158" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>169</v>
       </c>
@@ -4537,8 +5026,8 @@
       <c r="C159" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="1">
-        <v>2</v>
+      <c r="D159" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E159" s="1">
         <v>2</v>
@@ -4546,8 +5035,11 @@
       <c r="F159" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G159" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>170</v>
       </c>
@@ -4557,8 +5049,8 @@
       <c r="C160" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D160" s="1">
-        <v>2</v>
+      <c r="D160" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E160" s="1">
         <v>1</v>
@@ -4566,8 +5058,11 @@
       <c r="F160" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G160" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>171</v>
       </c>
@@ -4577,8 +5072,8 @@
       <c r="C161" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D161" s="1">
-        <v>2</v>
+      <c r="D161" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E161" s="1">
         <v>1</v>
@@ -4586,8 +5081,11 @@
       <c r="F161" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G161" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>172</v>
       </c>
@@ -4597,8 +5095,8 @@
       <c r="C162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D162" s="1">
-        <v>2</v>
+      <c r="D162" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E162" s="1">
         <v>1</v>
@@ -4606,8 +5104,11 @@
       <c r="F162" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G162" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>173</v>
       </c>
@@ -4617,8 +5118,8 @@
       <c r="C163" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D163" s="1">
-        <v>2</v>
+      <c r="D163" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E163" s="1">
         <v>1</v>
@@ -4626,8 +5127,11 @@
       <c r="F163" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G163" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>174</v>
       </c>
@@ -4637,8 +5141,8 @@
       <c r="C164" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D164" s="1">
-        <v>2</v>
+      <c r="D164" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E164" s="1">
         <v>2</v>
@@ -4646,8 +5150,11 @@
       <c r="F164" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G164" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>175</v>
       </c>
@@ -4657,8 +5164,8 @@
       <c r="C165" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D165" s="1">
-        <v>2</v>
+      <c r="D165" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E165" s="1">
         <v>3</v>
@@ -4666,8 +5173,11 @@
       <c r="F165" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G165" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>176</v>
       </c>
@@ -4677,8 +5187,8 @@
       <c r="C166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D166" s="1">
-        <v>2</v>
+      <c r="D166" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E166" s="1">
         <v>1</v>
@@ -4686,8 +5196,11 @@
       <c r="F166" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G166" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>177</v>
       </c>
@@ -4697,8 +5210,8 @@
       <c r="C167" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D167" s="1">
-        <v>2</v>
+      <c r="D167" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E167" s="1">
         <v>1</v>
@@ -4706,8 +5219,11 @@
       <c r="F167" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G167" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>178</v>
       </c>
@@ -4717,8 +5233,8 @@
       <c r="C168" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D168" s="1">
-        <v>2</v>
+      <c r="D168" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E168" s="1">
         <v>1</v>
@@ -4726,8 +5242,11 @@
       <c r="F168" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G168" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>179</v>
       </c>
@@ -4737,8 +5256,8 @@
       <c r="C169" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D169" s="1">
-        <v>2</v>
+      <c r="D169" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E169" s="1">
         <v>1</v>
@@ -4746,8 +5265,11 @@
       <c r="F169" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G169" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>180</v>
       </c>
@@ -4757,8 +5279,8 @@
       <c r="C170" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="1">
-        <v>2</v>
+      <c r="D170" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E170" s="1">
         <v>2</v>
@@ -4766,8 +5288,11 @@
       <c r="F170" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G170" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>181</v>
       </c>
@@ -4777,8 +5302,8 @@
       <c r="C171" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D171" s="1">
-        <v>2</v>
+      <c r="D171" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
@@ -4786,8 +5311,11 @@
       <c r="F171" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G171" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>182</v>
       </c>
@@ -4797,8 +5325,8 @@
       <c r="C172" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D172" s="1">
-        <v>2</v>
+      <c r="D172" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
@@ -4806,8 +5334,11 @@
       <c r="F172" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G172" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>183</v>
       </c>
@@ -4817,8 +5348,8 @@
       <c r="C173" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D173" s="1">
-        <v>2</v>
+      <c r="D173" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E173" s="1">
         <v>2</v>
@@ -4826,8 +5357,11 @@
       <c r="F173" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G173" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>184</v>
       </c>
@@ -4837,8 +5371,8 @@
       <c r="C174" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D174" s="1">
-        <v>2</v>
+      <c r="D174" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E174" s="1">
         <v>3</v>
@@ -4846,8 +5380,11 @@
       <c r="F174" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G174" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>185</v>
       </c>
@@ -4857,8 +5394,8 @@
       <c r="C175" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D175" s="1">
-        <v>2</v>
+      <c r="D175" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
@@ -4866,8 +5403,11 @@
       <c r="F175" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G175" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>186</v>
       </c>
@@ -4877,8 +5417,8 @@
       <c r="C176" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D176" s="1">
-        <v>2</v>
+      <c r="D176" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
@@ -4886,8 +5426,11 @@
       <c r="F176" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G176" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>187</v>
       </c>
@@ -4897,8 +5440,8 @@
       <c r="C177" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D177" s="1">
-        <v>4</v>
+      <c r="D177" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E177" s="1">
         <v>19</v>
@@ -4906,8 +5449,11 @@
       <c r="F177" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G177" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>188</v>
       </c>
@@ -4917,8 +5463,8 @@
       <c r="C178" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D178" s="1">
-        <v>4</v>
+      <c r="D178" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E178" s="1">
         <v>5</v>
@@ -4926,8 +5472,11 @@
       <c r="F178" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G178" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>189</v>
       </c>
@@ -4937,8 +5486,8 @@
       <c r="C179" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D179" s="1">
-        <v>4</v>
+      <c r="D179" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E179" s="1">
         <v>14</v>
@@ -4946,8 +5495,11 @@
       <c r="F179" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G179" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>190</v>
       </c>
@@ -4957,8 +5509,8 @@
       <c r="C180" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D180" s="1">
-        <v>4</v>
+      <c r="D180" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E180" s="1">
         <v>13</v>
@@ -4966,8 +5518,11 @@
       <c r="F180" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G180" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>191</v>
       </c>
@@ -4977,8 +5532,8 @@
       <c r="C181" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D181" s="1">
-        <v>4</v>
+      <c r="D181" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E181" s="1">
         <v>5</v>
@@ -4986,8 +5541,11 @@
       <c r="F181" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G181" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>192</v>
       </c>
@@ -4997,8 +5555,8 @@
       <c r="C182" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D182" s="1">
-        <v>4</v>
+      <c r="D182" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E182" s="1">
         <v>14</v>
@@ -5006,8 +5564,11 @@
       <c r="F182" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G182" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>193</v>
       </c>
@@ -5017,8 +5578,8 @@
       <c r="C183" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D183" s="1">
-        <v>4</v>
+      <c r="D183" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E183" s="1">
         <v>9</v>
@@ -5026,8 +5587,11 @@
       <c r="F183" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G183" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>194</v>
       </c>
@@ -5037,8 +5601,8 @@
       <c r="C184" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D184" s="1">
-        <v>4</v>
+      <c r="D184" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E184" s="1">
         <v>25</v>
@@ -5046,8 +5610,11 @@
       <c r="F184" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G184" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>195</v>
       </c>
@@ -5057,8 +5624,8 @@
       <c r="C185" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D185" s="1">
-        <v>4</v>
+      <c r="D185" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E185" s="1">
         <v>2</v>
@@ -5066,8 +5633,11 @@
       <c r="F185" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G185" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>196</v>
       </c>
@@ -5077,8 +5647,8 @@
       <c r="C186" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D186" s="1">
-        <v>4</v>
+      <c r="D186" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E186" s="1">
         <v>1</v>
@@ -5086,8 +5656,11 @@
       <c r="F186" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G186" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>197</v>
       </c>
@@ -5097,8 +5670,8 @@
       <c r="C187" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D187" s="1">
-        <v>4</v>
+      <c r="D187" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E187" s="1">
         <v>6</v>
@@ -5106,8 +5679,11 @@
       <c r="F187" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G187" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>198</v>
       </c>
@@ -5117,8 +5693,8 @@
       <c r="C188" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D188" s="1">
-        <v>4</v>
+      <c r="D188" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E188" s="1">
         <v>9</v>
@@ -5126,8 +5702,11 @@
       <c r="F188" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G188" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>199</v>
       </c>
@@ -5137,8 +5716,8 @@
       <c r="C189" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D189" s="1">
-        <v>4</v>
+      <c r="D189" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E189" s="1">
         <v>13</v>
@@ -5146,8 +5725,11 @@
       <c r="F189" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G189" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>200</v>
       </c>
@@ -5157,8 +5739,8 @@
       <c r="C190" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D190" s="1">
-        <v>4</v>
+      <c r="D190" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
@@ -5166,8 +5748,11 @@
       <c r="F190" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G190" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>201</v>
       </c>
@@ -5177,8 +5762,8 @@
       <c r="C191" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D191" s="1">
-        <v>4</v>
+      <c r="D191" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E191" s="1">
         <v>12</v>
@@ -5186,8 +5771,11 @@
       <c r="F191" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G191" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>202</v>
       </c>
@@ -5197,8 +5785,8 @@
       <c r="C192" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D192" s="1">
-        <v>4</v>
+      <c r="D192" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E192" s="1">
         <v>15</v>
@@ -5206,8 +5794,11 @@
       <c r="F192" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G192" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>203</v>
       </c>
@@ -5217,8 +5808,8 @@
       <c r="C193" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D193" s="1">
-        <v>4</v>
+      <c r="D193" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E193" s="1">
         <v>7</v>
@@ -5226,8 +5817,11 @@
       <c r="F193" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G193" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>204</v>
       </c>
@@ -5237,8 +5831,8 @@
       <c r="C194" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D194" s="1">
-        <v>4</v>
+      <c r="D194" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E194" s="1">
         <v>12</v>
@@ -5246,8 +5840,11 @@
       <c r="F194" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G194" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>205</v>
       </c>
@@ -5257,8 +5854,8 @@
       <c r="C195" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D195" s="1">
-        <v>4</v>
+      <c r="D195" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E195" s="1">
         <v>3</v>
@@ -5266,8 +5863,11 @@
       <c r="F195" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G195" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>206</v>
       </c>
@@ -5277,8 +5877,8 @@
       <c r="C196" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D196" s="1">
-        <v>4</v>
+      <c r="D196" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
@@ -5286,8 +5886,11 @@
       <c r="F196" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G196" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>207</v>
       </c>
@@ -5297,8 +5900,8 @@
       <c r="C197" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D197" s="1">
-        <v>4</v>
+      <c r="D197" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E197" s="1">
         <v>2</v>
@@ -5306,8 +5909,11 @@
       <c r="F197" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G197" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>208</v>
       </c>
@@ -5317,8 +5923,8 @@
       <c r="C198" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D198" s="1">
-        <v>4</v>
+      <c r="D198" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E198" s="1">
         <v>1</v>
@@ -5326,8 +5932,11 @@
       <c r="F198" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G198" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>209</v>
       </c>
@@ -5337,8 +5946,8 @@
       <c r="C199" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D199" s="1">
-        <v>4</v>
+      <c r="D199" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E199" s="1">
         <v>1</v>
@@ -5346,8 +5955,11 @@
       <c r="F199" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G199" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>210</v>
       </c>
@@ -5357,8 +5969,8 @@
       <c r="C200" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D200" s="1">
-        <v>4</v>
+      <c r="D200" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E200" s="1">
         <v>1</v>
@@ -5366,8 +5978,11 @@
       <c r="F200" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G200" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>211</v>
       </c>
@@ -5377,8 +5992,8 @@
       <c r="C201" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D201" s="1">
-        <v>4</v>
+      <c r="D201" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E201" s="1">
         <v>9</v>
@@ -5386,8 +6001,11 @@
       <c r="F201" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G201" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>212</v>
       </c>
@@ -5397,8 +6015,8 @@
       <c r="C202" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D202" s="1">
-        <v>3</v>
+      <c r="D202" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E202" s="1">
         <v>0</v>
@@ -5406,8 +6024,11 @@
       <c r="F202" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G202" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>213</v>
       </c>
@@ -5417,8 +6038,8 @@
       <c r="C203" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D203" s="1">
-        <v>3</v>
+      <c r="D203" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E203" s="1">
         <v>0</v>
@@ -5426,8 +6047,11 @@
       <c r="F203" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G203" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>214</v>
       </c>
@@ -5437,8 +6061,8 @@
       <c r="C204" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D204" s="1">
-        <v>3</v>
+      <c r="D204" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E204" s="1">
         <v>0</v>
@@ -5446,8 +6070,11 @@
       <c r="F204" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G204" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>215</v>
       </c>
@@ -5457,8 +6084,8 @@
       <c r="C205" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D205" s="1">
-        <v>3</v>
+      <c r="D205" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E205" s="1">
         <v>0</v>
@@ -5466,8 +6093,11 @@
       <c r="F205" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G205" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>216</v>
       </c>
@@ -5477,8 +6107,8 @@
       <c r="C206" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D206" s="1">
-        <v>3</v>
+      <c r="D206" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E206" s="1">
         <v>0</v>
@@ -5486,8 +6116,11 @@
       <c r="F206" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G206" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>217</v>
       </c>
@@ -5497,8 +6130,8 @@
       <c r="C207" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D207" s="1">
-        <v>3</v>
+      <c r="D207" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E207" s="1">
         <v>0</v>
@@ -5506,8 +6139,11 @@
       <c r="F207" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G207" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>218</v>
       </c>
@@ -5517,8 +6153,8 @@
       <c r="C208" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D208" s="1">
-        <v>3</v>
+      <c r="D208" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E208" s="1">
         <v>0</v>
@@ -5526,8 +6162,11 @@
       <c r="F208" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G208" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>219</v>
       </c>
@@ -5537,8 +6176,8 @@
       <c r="C209" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D209" s="1">
-        <v>3</v>
+      <c r="D209" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E209" s="1">
         <v>0</v>
@@ -5546,8 +6185,11 @@
       <c r="F209" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G209" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>220</v>
       </c>
@@ -5557,8 +6199,8 @@
       <c r="C210" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D210" s="1">
-        <v>3</v>
+      <c r="D210" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E210" s="1">
         <v>0</v>
@@ -5566,8 +6208,11 @@
       <c r="F210" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G210" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>221</v>
       </c>
@@ -5577,8 +6222,8 @@
       <c r="C211" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D211" s="1">
-        <v>3</v>
+      <c r="D211" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E211" s="1">
         <v>0</v>
@@ -5586,8 +6231,11 @@
       <c r="F211" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G211" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>222</v>
       </c>
@@ -5597,8 +6245,8 @@
       <c r="C212" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D212" s="1">
-        <v>3</v>
+      <c r="D212" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E212" s="1">
         <v>0</v>
@@ -5606,8 +6254,11 @@
       <c r="F212" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G212" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>223</v>
       </c>
@@ -5617,8 +6268,8 @@
       <c r="C213" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D213" s="1">
-        <v>3</v>
+      <c r="D213" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E213" s="1">
         <v>0</v>
@@ -5626,8 +6277,11 @@
       <c r="F213" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G213" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>224</v>
       </c>
@@ -5637,8 +6291,8 @@
       <c r="C214" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D214" s="1">
-        <v>3</v>
+      <c r="D214" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E214" s="1">
         <v>0</v>
@@ -5646,8 +6300,11 @@
       <c r="F214" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G214" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>225</v>
       </c>
@@ -5657,8 +6314,8 @@
       <c r="C215" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D215" s="1">
-        <v>3</v>
+      <c r="D215" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E215" s="1">
         <v>0</v>
@@ -5666,8 +6323,11 @@
       <c r="F215" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G215" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>226</v>
       </c>
@@ -5677,8 +6337,8 @@
       <c r="C216" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D216" s="1">
-        <v>3</v>
+      <c r="D216" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E216" s="1">
         <v>0</v>
@@ -5686,8 +6346,11 @@
       <c r="F216" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G216" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>227</v>
       </c>
@@ -5697,8 +6360,8 @@
       <c r="C217" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D217" s="1">
-        <v>3</v>
+      <c r="D217" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E217" s="1">
         <v>0</v>
@@ -5706,8 +6369,11 @@
       <c r="F217" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G217" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>228</v>
       </c>
@@ -5717,8 +6383,8 @@
       <c r="C218" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D218" s="1">
-        <v>3</v>
+      <c r="D218" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E218" s="1">
         <v>0</v>
@@ -5726,8 +6392,11 @@
       <c r="F218" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G218" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>229</v>
       </c>
@@ -5737,8 +6406,8 @@
       <c r="C219" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D219" s="1">
-        <v>3</v>
+      <c r="D219" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
@@ -5746,8 +6415,11 @@
       <c r="F219" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G219" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>230</v>
       </c>
@@ -5757,8 +6429,8 @@
       <c r="C220" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D220" s="1">
-        <v>3</v>
+      <c r="D220" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E220" s="1">
         <v>0</v>
@@ -5766,8 +6438,11 @@
       <c r="F220" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G220" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>231</v>
       </c>
@@ -5777,8 +6452,8 @@
       <c r="C221" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D221" s="1">
-        <v>3</v>
+      <c r="D221" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E221" s="1">
         <v>0</v>
@@ -5786,8 +6461,11 @@
       <c r="F221" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G221" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>232</v>
       </c>
@@ -5797,8 +6475,8 @@
       <c r="C222" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D222" s="1">
-        <v>3</v>
+      <c r="D222" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E222" s="1">
         <v>0</v>
@@ -5806,8 +6484,11 @@
       <c r="F222" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G222" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>233</v>
       </c>
@@ -5817,8 +6498,8 @@
       <c r="C223" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D223" s="1">
-        <v>3</v>
+      <c r="D223" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E223" s="1">
         <v>0</v>
@@ -5826,8 +6507,11 @@
       <c r="F223" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G223" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>234</v>
       </c>
@@ -5837,8 +6521,8 @@
       <c r="C224" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D224" s="1">
-        <v>3</v>
+      <c r="D224" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E224" s="1">
         <v>0</v>
@@ -5846,8 +6530,11 @@
       <c r="F224" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G224" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>235</v>
       </c>
@@ -5857,8 +6544,8 @@
       <c r="C225" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D225" s="1">
-        <v>3</v>
+      <c r="D225" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E225" s="1">
         <v>0</v>
@@ -5866,8 +6553,11 @@
       <c r="F225" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G225" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>236</v>
       </c>
@@ -5877,8 +6567,8 @@
       <c r="C226" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D226" s="1">
-        <v>3</v>
+      <c r="D226" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E226" s="1">
         <v>0</v>
@@ -5886,8 +6576,11 @@
       <c r="F226" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G226" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>237</v>
       </c>
@@ -5897,8 +6590,8 @@
       <c r="C227" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D227" s="1">
-        <v>2</v>
+      <c r="D227" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E227" s="1">
         <v>8</v>
@@ -5906,8 +6599,11 @@
       <c r="F227" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G227" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>239</v>
       </c>
@@ -5917,8 +6613,8 @@
       <c r="C228" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D228" s="1">
-        <v>2</v>
+      <c r="D228" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E228" s="1">
         <v>2</v>
@@ -5926,8 +6622,11 @@
       <c r="F228" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G228" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>240</v>
       </c>
@@ -5937,8 +6636,8 @@
       <c r="C229" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D229" s="1">
-        <v>2</v>
+      <c r="D229" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E229" s="1">
         <v>1</v>
@@ -5946,8 +6645,11 @@
       <c r="F229" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G229" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>241</v>
       </c>
@@ -5957,8 +6659,8 @@
       <c r="C230" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D230" s="1">
-        <v>2</v>
+      <c r="D230" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E230" s="1">
         <v>1</v>
@@ -5966,8 +6668,11 @@
       <c r="F230" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G230" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>242</v>
       </c>
@@ -5977,8 +6682,8 @@
       <c r="C231" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D231" s="1">
-        <v>2</v>
+      <c r="D231" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E231" s="1">
         <v>2</v>
@@ -5986,8 +6691,11 @@
       <c r="F231" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G231" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>243</v>
       </c>
@@ -5997,8 +6705,8 @@
       <c r="C232" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D232" s="1">
-        <v>2</v>
+      <c r="D232" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E232" s="1">
         <v>2</v>
@@ -6006,8 +6714,11 @@
       <c r="F232" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G232" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>244</v>
       </c>
@@ -6017,8 +6728,8 @@
       <c r="C233" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D233" s="1">
-        <v>2</v>
+      <c r="D233" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E233" s="1">
         <v>3</v>
@@ -6026,8 +6737,11 @@
       <c r="F233" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G233" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>245</v>
       </c>
@@ -6037,8 +6751,8 @@
       <c r="C234" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D234" s="1">
-        <v>2</v>
+      <c r="D234" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E234" s="1">
         <v>2</v>
@@ -6046,8 +6760,11 @@
       <c r="F234" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G234" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>246</v>
       </c>
@@ -6057,8 +6774,8 @@
       <c r="C235" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D235" s="1">
-        <v>2</v>
+      <c r="D235" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E235" s="1">
         <v>10</v>
@@ -6066,8 +6783,11 @@
       <c r="F235" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G235" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>247</v>
       </c>
@@ -6077,8 +6797,8 @@
       <c r="C236" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D236" s="1">
-        <v>2</v>
+      <c r="D236" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E236" s="1">
         <v>7</v>
@@ -6086,8 +6806,11 @@
       <c r="F236" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G236" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>248</v>
       </c>
@@ -6097,8 +6820,8 @@
       <c r="C237" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D237" s="1">
-        <v>2</v>
+      <c r="D237" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E237" s="1">
         <v>1</v>
@@ -6106,8 +6829,11 @@
       <c r="F237" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G237" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>249</v>
       </c>
@@ -6117,8 +6843,8 @@
       <c r="C238" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D238" s="1">
-        <v>2</v>
+      <c r="D238" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E238" s="1">
         <v>4</v>
@@ -6126,8 +6852,11 @@
       <c r="F238" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G238" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>250</v>
       </c>
@@ -6137,8 +6866,8 @@
       <c r="C239" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D239" s="1">
-        <v>2</v>
+      <c r="D239" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E239" s="1">
         <v>1</v>
@@ -6146,8 +6875,11 @@
       <c r="F239" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G239" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>251</v>
       </c>
@@ -6157,8 +6889,8 @@
       <c r="C240" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D240" s="1">
-        <v>2</v>
+      <c r="D240" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E240" s="1">
         <v>1</v>
@@ -6166,8 +6898,11 @@
       <c r="F240" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G240" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>252</v>
       </c>
@@ -6177,8 +6912,8 @@
       <c r="C241" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D241" s="1">
-        <v>2</v>
+      <c r="D241" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E241" s="1">
         <v>2</v>
@@ -6186,8 +6921,11 @@
       <c r="F241" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G241" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>253</v>
       </c>
@@ -6197,8 +6935,8 @@
       <c r="C242" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D242" s="1">
-        <v>2</v>
+      <c r="D242" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E242" s="1">
         <v>1</v>
@@ -6206,8 +6944,11 @@
       <c r="F242" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G242" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>254</v>
       </c>
@@ -6217,8 +6958,8 @@
       <c r="C243" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D243" s="1">
-        <v>2</v>
+      <c r="D243" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E243" s="1">
         <v>2</v>
@@ -6226,8 +6967,11 @@
       <c r="F243" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G243" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>255</v>
       </c>
@@ -6237,8 +6981,8 @@
       <c r="C244" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D244" s="1">
-        <v>2</v>
+      <c r="D244" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E244" s="1">
         <v>1</v>
@@ -6246,8 +6990,11 @@
       <c r="F244" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G244" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>256</v>
       </c>
@@ -6257,8 +7004,8 @@
       <c r="C245" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D245" s="1">
-        <v>2</v>
+      <c r="D245" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E245" s="1">
         <v>1</v>
@@ -6266,8 +7013,11 @@
       <c r="F245" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G245" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>257</v>
       </c>
@@ -6277,8 +7027,8 @@
       <c r="C246" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D246" s="1">
-        <v>2</v>
+      <c r="D246" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E246" s="1">
         <v>4</v>
@@ -6286,8 +7036,11 @@
       <c r="F246" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G246" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>258</v>
       </c>
@@ -6297,8 +7050,8 @@
       <c r="C247" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D247" s="1">
-        <v>2</v>
+      <c r="D247" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E247" s="1">
         <v>3</v>
@@ -6306,8 +7059,11 @@
       <c r="F247" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G247" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>259</v>
       </c>
@@ -6317,8 +7073,8 @@
       <c r="C248" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D248" s="1">
-        <v>2</v>
+      <c r="D248" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E248" s="1">
         <v>1</v>
@@ -6326,8 +7082,11 @@
       <c r="F248" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G248" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>260</v>
       </c>
@@ -6337,8 +7096,8 @@
       <c r="C249" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D249" s="1">
-        <v>2</v>
+      <c r="D249" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E249" s="1">
         <v>4</v>
@@ -6346,8 +7105,11 @@
       <c r="F249" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G249" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>261</v>
       </c>
@@ -6357,8 +7119,8 @@
       <c r="C250" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D250" s="1">
-        <v>2</v>
+      <c r="D250" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E250" s="1">
         <v>3</v>
@@ -6366,8 +7128,11 @@
       <c r="F250" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G250" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>262</v>
       </c>
@@ -6377,8 +7142,8 @@
       <c r="C251" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D251" s="1">
-        <v>2</v>
+      <c r="D251" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E251" s="1">
         <v>1</v>
@@ -6386,8 +7151,11 @@
       <c r="F251" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G251" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>263</v>
       </c>
@@ -6397,8 +7165,8 @@
       <c r="C252" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D252" s="1">
-        <v>4</v>
+      <c r="D252" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E252" s="1">
         <v>7</v>
@@ -6406,8 +7174,11 @@
       <c r="F252" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G252" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>264</v>
       </c>
@@ -6417,8 +7188,8 @@
       <c r="C253" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D253" s="1">
-        <v>4</v>
+      <c r="D253" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E253" s="1">
         <v>6</v>
@@ -6426,8 +7197,11 @@
       <c r="F253" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G253" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>265</v>
       </c>
@@ -6437,8 +7211,8 @@
       <c r="C254" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D254" s="1">
-        <v>4</v>
+      <c r="D254" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E254" s="1">
         <v>6</v>
@@ -6446,8 +7220,11 @@
       <c r="F254" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G254" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>266</v>
       </c>
@@ -6457,8 +7234,8 @@
       <c r="C255" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D255" s="1">
-        <v>4</v>
+      <c r="D255" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E255" s="1">
         <v>6</v>
@@ -6466,8 +7243,11 @@
       <c r="F255" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G255" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>267</v>
       </c>
@@ -6477,8 +7257,8 @@
       <c r="C256" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D256" s="1">
-        <v>4</v>
+      <c r="D256" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E256" s="1">
         <v>3</v>
@@ -6486,8 +7266,11 @@
       <c r="F256" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G256" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>268</v>
       </c>
@@ -6497,8 +7280,8 @@
       <c r="C257" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D257" s="1">
-        <v>4</v>
+      <c r="D257" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E257" s="1">
         <v>12</v>
@@ -6506,8 +7289,11 @@
       <c r="F257" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G257" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>269</v>
       </c>
@@ -6517,8 +7303,8 @@
       <c r="C258" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D258" s="1">
-        <v>4</v>
+      <c r="D258" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E258" s="1">
         <v>2</v>
@@ -6526,8 +7312,11 @@
       <c r="F258" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G258" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>270</v>
       </c>
@@ -6537,8 +7326,8 @@
       <c r="C259" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D259" s="1">
-        <v>4</v>
+      <c r="D259" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E259" s="1">
         <v>1</v>
@@ -6546,8 +7335,11 @@
       <c r="F259" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G259" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>271</v>
       </c>
@@ -6557,8 +7349,8 @@
       <c r="C260" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D260" s="1">
-        <v>4</v>
+      <c r="D260" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E260" s="1">
         <v>6</v>
@@ -6566,8 +7358,11 @@
       <c r="F260" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G260" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>272</v>
       </c>
@@ -6577,8 +7372,8 @@
       <c r="C261" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D261" s="1">
-        <v>4</v>
+      <c r="D261" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E261" s="1">
         <v>2</v>
@@ -6586,8 +7381,11 @@
       <c r="F261" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G261" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>273</v>
       </c>
@@ -6597,8 +7395,8 @@
       <c r="C262" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D262" s="1">
-        <v>4</v>
+      <c r="D262" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E262" s="1">
         <v>2</v>
@@ -6606,8 +7404,11 @@
       <c r="F262" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G262" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>274</v>
       </c>
@@ -6617,8 +7418,8 @@
       <c r="C263" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D263" s="1">
-        <v>4</v>
+      <c r="D263" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E263" s="1">
         <v>2</v>
@@ -6626,8 +7427,11 @@
       <c r="F263" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G263" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>275</v>
       </c>
@@ -6637,8 +7441,8 @@
       <c r="C264" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D264" s="1">
-        <v>4</v>
+      <c r="D264" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E264" s="1">
         <v>5</v>
@@ -6646,8 +7450,11 @@
       <c r="F264" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G264" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>276</v>
       </c>
@@ -6657,8 +7464,8 @@
       <c r="C265" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D265" s="1">
-        <v>4</v>
+      <c r="D265" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E265" s="1">
         <v>2</v>
@@ -6666,8 +7473,11 @@
       <c r="F265" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G265" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>277</v>
       </c>
@@ -6677,8 +7487,8 @@
       <c r="C266" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D266" s="1">
-        <v>4</v>
+      <c r="D266" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E266" s="1">
         <v>1</v>
@@ -6686,8 +7496,11 @@
       <c r="F266" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G266" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>278</v>
       </c>
@@ -6697,8 +7510,8 @@
       <c r="C267" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D267" s="1">
-        <v>4</v>
+      <c r="D267" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E267" s="1">
         <v>2</v>
@@ -6706,8 +7519,11 @@
       <c r="F267" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G267" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>279</v>
       </c>
@@ -6717,8 +7533,8 @@
       <c r="C268" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D268" s="1">
-        <v>4</v>
+      <c r="D268" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E268" s="1">
         <v>8</v>
@@ -6726,8 +7542,11 @@
       <c r="F268" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G268" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>280</v>
       </c>
@@ -6737,8 +7556,8 @@
       <c r="C269" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D269" s="1">
-        <v>4</v>
+      <c r="D269" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E269" s="1">
         <v>2</v>
@@ -6746,8 +7565,11 @@
       <c r="F269" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G269" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>281</v>
       </c>
@@ -6757,8 +7579,8 @@
       <c r="C270" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D270" s="1">
-        <v>4</v>
+      <c r="D270" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E270" s="1">
         <v>3</v>
@@ -6766,8 +7588,11 @@
       <c r="F270" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G270" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>282</v>
       </c>
@@ -6777,8 +7602,8 @@
       <c r="C271" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D271" s="1">
-        <v>4</v>
+      <c r="D271" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E271" s="1">
         <v>1</v>
@@ -6786,8 +7611,11 @@
       <c r="F271" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G271" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>283</v>
       </c>
@@ -6797,8 +7625,8 @@
       <c r="C272" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D272" s="1">
-        <v>4</v>
+      <c r="D272" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E272" s="1">
         <v>2</v>
@@ -6806,8 +7634,11 @@
       <c r="F272" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G272" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>284</v>
       </c>
@@ -6817,8 +7648,8 @@
       <c r="C273" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D273" s="1">
-        <v>4</v>
+      <c r="D273" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E273" s="1">
         <v>2</v>
@@ -6826,8 +7657,11 @@
       <c r="F273" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G273" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>285</v>
       </c>
@@ -6837,8 +7671,8 @@
       <c r="C274" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D274" s="1">
-        <v>4</v>
+      <c r="D274" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E274" s="1">
         <v>7</v>
@@ -6846,8 +7680,11 @@
       <c r="F274" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G274" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>286</v>
       </c>
@@ -6857,8 +7694,8 @@
       <c r="C275" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D275" s="1">
-        <v>4</v>
+      <c r="D275" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E275" s="1">
         <v>2</v>
@@ -6866,8 +7703,11 @@
       <c r="F275" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G275" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>287</v>
       </c>
@@ -6877,8 +7717,8 @@
       <c r="C276" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D276" s="1">
-        <v>4</v>
+      <c r="D276" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="E276" s="1">
         <v>5</v>
@@ -6886,8 +7726,11 @@
       <c r="F276" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G276" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>288</v>
       </c>
@@ -6897,8 +7740,8 @@
       <c r="C277" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D277" s="1">
-        <v>3</v>
+      <c r="D277" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E277" s="1">
         <v>0</v>
@@ -6906,8 +7749,11 @@
       <c r="F277" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G277" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>289</v>
       </c>
@@ -6917,8 +7763,8 @@
       <c r="C278" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D278" s="1">
-        <v>3</v>
+      <c r="D278" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E278" s="1">
         <v>0</v>
@@ -6926,8 +7772,11 @@
       <c r="F278" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G278" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>290</v>
       </c>
@@ -6937,8 +7786,8 @@
       <c r="C279" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D279" s="1">
-        <v>3</v>
+      <c r="D279" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E279" s="1">
         <v>0</v>
@@ -6946,8 +7795,11 @@
       <c r="F279" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G279" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>291</v>
       </c>
@@ -6957,8 +7809,8 @@
       <c r="C280" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D280" s="1">
-        <v>3</v>
+      <c r="D280" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E280" s="1">
         <v>0</v>
@@ -6966,8 +7818,11 @@
       <c r="F280" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G280" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>292</v>
       </c>
@@ -6977,8 +7832,8 @@
       <c r="C281" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D281" s="1">
-        <v>3</v>
+      <c r="D281" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E281" s="1">
         <v>0</v>
@@ -6986,8 +7841,11 @@
       <c r="F281" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G281" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>293</v>
       </c>
@@ -6997,8 +7855,8 @@
       <c r="C282" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D282" s="1">
-        <v>3</v>
+      <c r="D282" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E282" s="1">
         <v>0</v>
@@ -7006,8 +7864,11 @@
       <c r="F282" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G282" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>294</v>
       </c>
@@ -7017,8 +7878,8 @@
       <c r="C283" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D283" s="1">
-        <v>3</v>
+      <c r="D283" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E283" s="1">
         <v>0</v>
@@ -7026,8 +7887,11 @@
       <c r="F283" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G283" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>295</v>
       </c>
@@ -7037,8 +7901,8 @@
       <c r="C284" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D284" s="1">
-        <v>3</v>
+      <c r="D284" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E284" s="1">
         <v>0</v>
@@ -7046,8 +7910,11 @@
       <c r="F284" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G284" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>296</v>
       </c>
@@ -7057,8 +7924,8 @@
       <c r="C285" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D285" s="1">
-        <v>3</v>
+      <c r="D285" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E285" s="1">
         <v>0</v>
@@ -7066,8 +7933,11 @@
       <c r="F285" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G285" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>297</v>
       </c>
@@ -7077,8 +7947,8 @@
       <c r="C286" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D286" s="1">
-        <v>3</v>
+      <c r="D286" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E286" s="1">
         <v>0</v>
@@ -7086,8 +7956,11 @@
       <c r="F286" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G286" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>298</v>
       </c>
@@ -7097,8 +7970,8 @@
       <c r="C287" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D287" s="1">
-        <v>3</v>
+      <c r="D287" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E287" s="1">
         <v>0</v>
@@ -7106,8 +7979,11 @@
       <c r="F287" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G287" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>299</v>
       </c>
@@ -7117,8 +7993,8 @@
       <c r="C288" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D288" s="1">
-        <v>3</v>
+      <c r="D288" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E288" s="1">
         <v>0</v>
@@ -7126,8 +8002,11 @@
       <c r="F288" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G288" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>300</v>
       </c>
@@ -7137,8 +8016,8 @@
       <c r="C289" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D289" s="1">
-        <v>3</v>
+      <c r="D289" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E289" s="1">
         <v>0</v>
@@ -7146,8 +8025,11 @@
       <c r="F289" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G289" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>301</v>
       </c>
@@ -7157,8 +8039,8 @@
       <c r="C290" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D290" s="1">
-        <v>3</v>
+      <c r="D290" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E290" s="1">
         <v>0</v>
@@ -7166,8 +8048,11 @@
       <c r="F290" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G290" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>302</v>
       </c>
@@ -7177,8 +8062,8 @@
       <c r="C291" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D291" s="1">
-        <v>3</v>
+      <c r="D291" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E291" s="1">
         <v>0</v>
@@ -7186,8 +8071,11 @@
       <c r="F291" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G291" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>303</v>
       </c>
@@ -7197,8 +8085,8 @@
       <c r="C292" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D292" s="1">
-        <v>3</v>
+      <c r="D292" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E292" s="1">
         <v>0</v>
@@ -7206,8 +8094,11 @@
       <c r="F292" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G292" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>304</v>
       </c>
@@ -7217,8 +8108,8 @@
       <c r="C293" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D293" s="1">
-        <v>3</v>
+      <c r="D293" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E293" s="1">
         <v>0</v>
@@ -7226,8 +8117,11 @@
       <c r="F293" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G293" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>305</v>
       </c>
@@ -7237,8 +8131,8 @@
       <c r="C294" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D294" s="1">
-        <v>3</v>
+      <c r="D294" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E294" s="1">
         <v>0</v>
@@ -7246,8 +8140,11 @@
       <c r="F294" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G294" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>306</v>
       </c>
@@ -7257,8 +8154,8 @@
       <c r="C295" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D295" s="1">
-        <v>3</v>
+      <c r="D295" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E295" s="1">
         <v>0</v>
@@ -7266,8 +8163,11 @@
       <c r="F295" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G295" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>307</v>
       </c>
@@ -7277,8 +8177,8 @@
       <c r="C296" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D296" s="1">
-        <v>3</v>
+      <c r="D296" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E296" s="1">
         <v>0</v>
@@ -7286,8 +8186,11 @@
       <c r="F296" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G296" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>308</v>
       </c>
@@ -7297,8 +8200,8 @@
       <c r="C297" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D297" s="1">
-        <v>3</v>
+      <c r="D297" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E297" s="1">
         <v>0</v>
@@ -7306,8 +8209,11 @@
       <c r="F297" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G297" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>309</v>
       </c>
@@ -7317,8 +8223,8 @@
       <c r="C298" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D298" s="1">
-        <v>3</v>
+      <c r="D298" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E298" s="1">
         <v>0</v>
@@ -7326,8 +8232,11 @@
       <c r="F298" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G298" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>310</v>
       </c>
@@ -7337,8 +8246,8 @@
       <c r="C299" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D299" s="1">
-        <v>3</v>
+      <c r="D299" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E299" s="1">
         <v>0</v>
@@ -7346,8 +8255,11 @@
       <c r="F299" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G299" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>311</v>
       </c>
@@ -7357,8 +8269,8 @@
       <c r="C300" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D300" s="1">
-        <v>3</v>
+      <c r="D300" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E300" s="1">
         <v>0</v>
@@ -7366,8 +8278,11 @@
       <c r="F300" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G300" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>312</v>
       </c>
@@ -7377,14 +8292,17 @@
       <c r="C301" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D301" s="1">
-        <v>3</v>
+      <c r="D301" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E301" s="1">
         <v>0</v>
       </c>
       <c r="F301" s="1">
         <v>0</v>
+      </c>
+      <c r="G301" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
